--- a/wtsummary.xlsx
+++ b/wtsummary.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>vars</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Monthly leisure by cars</t>
+  </si>
+  <si>
+    <t>continuous</t>
   </si>
 </sst>
 </file>
@@ -1103,11 +1106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,6 +1503,9 @@
       <c r="L13">
         <v>0.20300000000000001</v>
       </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
       <c r="P13" t="s">
         <v>70</v>
       </c>
@@ -1595,6 +1601,9 @@
       </c>
       <c r="L16">
         <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
       </c>
       <c r="P16" t="s">
         <v>71</v>
